--- a/Test/TestExcelFiles/MispeltTableOfForAssertionTable/MispeltTableOfForAssertionTable.xlsx
+++ b/Test/TestExcelFiles/MispeltTableOfForAssertionTable/MispeltTableOfForAssertionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\MispeltTableOfForAssertionTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74781875-9B7F-4D48-9506-EE1D399FED22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB72FF-C46B-426A-827C-B1787F6C5C2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MispeltTableOfForAssertionTable" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>An error should be issued stating that the setup is invalid. Ideally it would be able to realise that "table of" is mispelt and state this</t>
+  </si>
+  <si>
+    <t>Then</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,110 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -536,9 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2815D5C7-BE26-466B-8AB4-0E09884D853E}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -558,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,23 +678,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,17 +704,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,18 +724,18 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"Assert"</formula>
+      <formula>"Then"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"When"</formula>
